--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3427,28 +3427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.8317828569406</v>
+        <v>250.333243843403</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.5740788972008</v>
+        <v>342.5169881496608</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.6512194376368</v>
+        <v>309.8276475263714</v>
       </c>
       <c r="AD2" t="n">
-        <v>213831.7828569406</v>
+        <v>250333.243843403</v>
       </c>
       <c r="AE2" t="n">
-        <v>292574.0788972008</v>
+        <v>342516.9881496608</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105447643684417e-06</v>
+        <v>5.745891191818695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.894205729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>264651.2194376368</v>
+        <v>309827.6475263714</v>
       </c>
     </row>
     <row r="3">
@@ -3533,28 +3533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.26598858402</v>
+        <v>134.461678706249</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.2897195753107</v>
+        <v>183.9764008364117</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.3238235316855</v>
+        <v>166.4179513531365</v>
       </c>
       <c r="AD3" t="n">
-        <v>122265.98858402</v>
+        <v>134461.678706249</v>
       </c>
       <c r="AE3" t="n">
-        <v>167289.7195753107</v>
+        <v>183976.4008364117</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.72376110413305e-06</v>
+        <v>8.740194791463729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.2177734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>151323.8235316855</v>
+        <v>166417.9513531365</v>
       </c>
     </row>
     <row r="4">
@@ -3639,28 +3639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.5888526287707</v>
+        <v>119.8947130015551</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.7888852491809</v>
+        <v>164.0452357100884</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.3065776043872</v>
+        <v>148.3889886528972</v>
       </c>
       <c r="AD4" t="n">
-        <v>95588.85262877069</v>
+        <v>119894.7130015551</v>
       </c>
       <c r="AE4" t="n">
-        <v>130788.8852491809</v>
+        <v>164045.2357100884</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.345392155864834e-06</v>
+        <v>9.890374989146566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.843424479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>118306.5776043872</v>
+        <v>148388.9886528972</v>
       </c>
     </row>
     <row r="5">
@@ -3745,28 +3745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.22056987851472</v>
+        <v>113.5264302512991</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.0755198414785</v>
+        <v>155.331870302386</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.424803561908</v>
+        <v>140.507214610418</v>
       </c>
       <c r="AD5" t="n">
-        <v>89220.56987851473</v>
+        <v>113526.4302512991</v>
       </c>
       <c r="AE5" t="n">
-        <v>122075.5198414785</v>
+        <v>155331.870302386</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.677215039291502e-06</v>
+        <v>1.050433419950475e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.677408854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>110424.8035619079</v>
+        <v>140507.214610418</v>
       </c>
     </row>
     <row r="6">
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.92578413340816</v>
+        <v>98.20672560165779</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.5674486293376</v>
+        <v>134.3707745430877</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.3469763391346</v>
+        <v>121.5466164112979</v>
       </c>
       <c r="AD6" t="n">
-        <v>85925.78413340816</v>
+        <v>98206.72560165779</v>
       </c>
       <c r="AE6" t="n">
-        <v>117567.4486293376</v>
+        <v>134370.7745430878</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.858438510515802e-06</v>
+        <v>1.08396450681894e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.594401041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>106346.9763391346</v>
+        <v>121546.6164112979</v>
       </c>
     </row>
     <row r="7">
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.48993103884064</v>
+        <v>95.77087250709027</v>
       </c>
       <c r="AB7" t="n">
-        <v>114.2346069630978</v>
+        <v>131.0379328768479</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.332216403847</v>
+        <v>118.5318564760103</v>
       </c>
       <c r="AD7" t="n">
-        <v>83489.93103884064</v>
+        <v>95770.87250709027</v>
       </c>
       <c r="AE7" t="n">
-        <v>114234.6069630978</v>
+        <v>131037.9328768479</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.97495932045291e-06</v>
+        <v>1.105523907340241e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.5439453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>103332.216403847</v>
+        <v>118531.8564760103</v>
       </c>
     </row>
     <row r="8">
@@ -4063,28 +4063,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.28768563091613</v>
+        <v>93.56862709916577</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.2213976397665</v>
+        <v>128.0247235535167</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.6065835492677</v>
+        <v>115.8062236214309</v>
       </c>
       <c r="AD8" t="n">
-        <v>81287.68563091612</v>
+        <v>93568.62709916577</v>
       </c>
       <c r="AE8" t="n">
-        <v>111221.3976397665</v>
+        <v>128024.7235535166</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.068325354056362e-06</v>
+        <v>1.122799068014359e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.5048828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>100606.5835492677</v>
+        <v>115806.2236214309</v>
       </c>
     </row>
     <row r="9">
@@ -4169,28 +4169,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>79.40963574491239</v>
+        <v>91.51998501256983</v>
       </c>
       <c r="AB9" t="n">
-        <v>108.651766932024</v>
+        <v>125.2216810709273</v>
       </c>
       <c r="AC9" t="n">
-        <v>98.28219478977198</v>
+        <v>113.2706995792842</v>
       </c>
       <c r="AD9" t="n">
-        <v>79409.63574491239</v>
+        <v>91519.98501256983</v>
       </c>
       <c r="AE9" t="n">
-        <v>108651.766932024</v>
+        <v>125221.6810709273</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.164585734701522e-06</v>
+        <v>1.140609758669376e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.4658203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>98282.19478977198</v>
+        <v>113270.6995792842</v>
       </c>
     </row>
     <row r="10">
@@ -4275,28 +4275,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>77.64629748942193</v>
+        <v>89.75664675707937</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.2390897378697</v>
+        <v>122.809003876773</v>
       </c>
       <c r="AC10" t="n">
-        <v>96.09978012081326</v>
+        <v>111.0882849103255</v>
       </c>
       <c r="AD10" t="n">
-        <v>77646.29748942192</v>
+        <v>89756.64675707936</v>
       </c>
       <c r="AE10" t="n">
-        <v>106239.0897378697</v>
+        <v>122809.003876773</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.225460388610972e-06</v>
+        <v>1.151873163428902e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.44140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>96099.78012081326</v>
+        <v>111088.2849103255</v>
       </c>
     </row>
     <row r="11">
@@ -4381,28 +4381,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>76.80643292676375</v>
+        <v>88.91678219442119</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.0899499910318</v>
+        <v>121.6598641299352</v>
       </c>
       <c r="AC11" t="n">
-        <v>95.06031265858552</v>
+        <v>110.0488174480977</v>
       </c>
       <c r="AD11" t="n">
-        <v>76806.43292676375</v>
+        <v>88916.78219442119</v>
       </c>
       <c r="AE11" t="n">
-        <v>105089.9499910318</v>
+        <v>121659.8641299352</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.250575851650302e-06</v>
+        <v>1.15652018165024e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.431640625</v>
       </c>
       <c r="AH11" t="n">
-        <v>95060.31265858552</v>
+        <v>110048.8174480977</v>
       </c>
     </row>
     <row r="12">
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>76.95886977526301</v>
+        <v>89.06921904292044</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.2985208121875</v>
+        <v>121.8684349510909</v>
       </c>
       <c r="AC12" t="n">
-        <v>95.24897777330116</v>
+        <v>110.2374825628134</v>
       </c>
       <c r="AD12" t="n">
-        <v>76958.86977526301</v>
+        <v>89069.21904292043</v>
       </c>
       <c r="AE12" t="n">
-        <v>105298.5208121875</v>
+        <v>121868.4349510909</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.251229413885525e-06</v>
+        <v>1.156641107774958e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.431640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>95248.97777330116</v>
+        <v>110237.4825628134</v>
       </c>
     </row>
   </sheetData>
@@ -4784,28 +4784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.8513382872777</v>
+        <v>187.2935112066913</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.1886296554276</v>
+        <v>256.2632448394325</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.792381491896</v>
+        <v>231.8058404197548</v>
       </c>
       <c r="AD2" t="n">
-        <v>163851.3382872777</v>
+        <v>187293.5112066913</v>
       </c>
       <c r="AE2" t="n">
-        <v>224188.6296554276</v>
+        <v>256263.2448394325</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.792829959429373e-06</v>
+        <v>7.229719259217606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.1455078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>202792.381491896</v>
+        <v>231805.8404197548</v>
       </c>
     </row>
     <row r="3">
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.87967909922453</v>
+        <v>116.3217625100871</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.0820745057569</v>
+        <v>159.1565672202134</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.9535396757728</v>
+        <v>143.9668878224051</v>
       </c>
       <c r="AD3" t="n">
-        <v>92879.67909922454</v>
+        <v>116321.7625100871</v>
       </c>
       <c r="AE3" t="n">
-        <v>127082.0745057569</v>
+        <v>159156.5672202134</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.31058009267629e-06</v>
+        <v>1.012278525120481e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.960611979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>114953.5396757728</v>
+        <v>143966.8878224051</v>
       </c>
     </row>
     <row r="4">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.20250019914847</v>
+        <v>106.644583610011</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.8413314076774</v>
+        <v>145.9158241221339</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.9764745154702</v>
+        <v>131.9898226621024</v>
       </c>
       <c r="AD4" t="n">
-        <v>83202.50019914848</v>
+        <v>106644.583610011</v>
       </c>
       <c r="AE4" t="n">
-        <v>113841.3314076774</v>
+        <v>145915.8241221339</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.853296014702154e-06</v>
+        <v>1.115728555723612e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.685546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>102976.4745154702</v>
+        <v>131989.8226621024</v>
       </c>
     </row>
     <row r="5">
@@ -5102,28 +5102,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.27168740687426</v>
+        <v>90.12074039416295</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.0947758131835</v>
+        <v>123.3071728537082</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.87380071806231</v>
+        <v>111.5389093392866</v>
       </c>
       <c r="AD5" t="n">
-        <v>78271.68740687426</v>
+        <v>90120.74039416295</v>
       </c>
       <c r="AE5" t="n">
-        <v>107094.7758131835</v>
+        <v>123307.1728537082</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.154933641412738e-06</v>
+        <v>1.173225342620495e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.5537109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>96873.80071806231</v>
+        <v>111538.9093392866</v>
       </c>
     </row>
     <row r="6">
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.47177465073014</v>
+        <v>87.15023543742664</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.2638116567961</v>
+        <v>119.2427969224739</v>
       </c>
       <c r="AC6" t="n">
-        <v>93.40845840396733</v>
+        <v>107.8624317425406</v>
       </c>
       <c r="AD6" t="n">
-        <v>75471.77465073013</v>
+        <v>87150.23543742664</v>
       </c>
       <c r="AE6" t="n">
-        <v>103263.8116567961</v>
+        <v>119242.7969224739</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.311306141458987e-06</v>
+        <v>1.203032354463611e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.490234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>93408.45840396734</v>
+        <v>107862.4317425406</v>
       </c>
     </row>
     <row r="7">
@@ -5314,28 +5314,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.95953318615057</v>
+        <v>84.63799397284707</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.82645205268872</v>
+        <v>115.8054373183665</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.29915557611041</v>
+        <v>104.7531289146837</v>
       </c>
       <c r="AD7" t="n">
-        <v>72959.53318615057</v>
+        <v>84637.99397284706</v>
       </c>
       <c r="AE7" t="n">
-        <v>99826.45205268872</v>
+        <v>115805.4373183665</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.433100905238061e-06</v>
+        <v>1.226248316127705e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.443033854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>90299.15557611041</v>
+        <v>104753.1289146837</v>
       </c>
     </row>
     <row r="8">
@@ -5420,28 +5420,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>71.58095380290042</v>
+        <v>83.25941458959691</v>
       </c>
       <c r="AB8" t="n">
-        <v>97.9402189218968</v>
+        <v>113.9192041875746</v>
       </c>
       <c r="AC8" t="n">
-        <v>88.59294188797584</v>
+        <v>103.0469152265491</v>
       </c>
       <c r="AD8" t="n">
-        <v>71580.95380290042</v>
+        <v>83259.41458959691</v>
       </c>
       <c r="AE8" t="n">
-        <v>97940.2189218968</v>
+        <v>113919.2041875746</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.488927529714116e-06</v>
+        <v>1.236889732338528e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>88592.94188797585</v>
+        <v>103046.9152265491</v>
       </c>
     </row>
     <row r="9">
@@ -5526,28 +5526,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>71.44030015609495</v>
+        <v>83.11876094279144</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.74777039713669</v>
+        <v>113.7267556628145</v>
       </c>
       <c r="AC9" t="n">
-        <v>88.41886038031556</v>
+        <v>102.8728337188889</v>
       </c>
       <c r="AD9" t="n">
-        <v>71440.30015609495</v>
+        <v>83118.76094279144</v>
       </c>
       <c r="AE9" t="n">
-        <v>97747.77039713669</v>
+        <v>113726.7556628145</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.487575327737188e-06</v>
+        <v>1.236631981772868e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.423502604166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>88418.86038031557</v>
+        <v>102872.8337188889</v>
       </c>
     </row>
   </sheetData>
@@ -5823,28 +5823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.70750929118608</v>
+        <v>91.54905341899594</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.74513360731754</v>
+        <v>125.2614537470071</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.5119138385069</v>
+        <v>113.3066764069802</v>
       </c>
       <c r="AD2" t="n">
-        <v>70707.50929118608</v>
+        <v>91549.05341899594</v>
       </c>
       <c r="AE2" t="n">
-        <v>96745.13360731755</v>
+        <v>125261.4537470071</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.01226989753067e-06</v>
+        <v>1.280456145306653e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.918294270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87511.91383850689</v>
+        <v>113306.6764069802</v>
       </c>
     </row>
     <row r="3">
@@ -5929,28 +5929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.6890582187858</v>
+        <v>69.06724936395595</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.30095863342721</v>
+        <v>94.50085761172159</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.63714784457491</v>
+        <v>85.48182839406874</v>
       </c>
       <c r="AD3" t="n">
-        <v>58689.05821878579</v>
+        <v>69067.24936395595</v>
       </c>
       <c r="AE3" t="n">
-        <v>80300.95863342722</v>
+        <v>94500.85761172159</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.066963331558369e-06</v>
+        <v>1.505078245117908e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.482096354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72637.14784457491</v>
+        <v>85481.82839406874</v>
       </c>
     </row>
     <row r="4">
@@ -6035,28 +6035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.06956043283988</v>
+        <v>68.44775157801004</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.45333443238297</v>
+        <v>93.65323341067733</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.87041970763002</v>
+        <v>84.71510025712386</v>
       </c>
       <c r="AD4" t="n">
-        <v>58069.56043283988</v>
+        <v>68447.75157801004</v>
       </c>
       <c r="AE4" t="n">
-        <v>79453.33443238298</v>
+        <v>93653.23341067733</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.149304000227607e-06</v>
+        <v>1.522614652664996e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.454427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>71870.41970763002</v>
+        <v>84715.10025712386</v>
       </c>
     </row>
   </sheetData>
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.2695417440225</v>
+        <v>112.2414272987738</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.5614547109809</v>
+        <v>153.5736725724124</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.3373439456252</v>
+        <v>138.9168168041466</v>
       </c>
       <c r="AD2" t="n">
-        <v>101269.5417440225</v>
+        <v>112241.4272987738</v>
       </c>
       <c r="AE2" t="n">
-        <v>138561.4547109809</v>
+        <v>153573.6725724124</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.114761216645154e-06</v>
+        <v>1.038473360468713e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>125337.3439456252</v>
+        <v>138916.8168041466</v>
       </c>
     </row>
     <row r="3">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.31309383958587</v>
+        <v>81.37023074035768</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.20547698605675</v>
+        <v>111.3343395001376</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.02376128776623</v>
+        <v>100.7087463969999</v>
       </c>
       <c r="AD3" t="n">
-        <v>70313.09383958587</v>
+        <v>81370.23074035769</v>
       </c>
       <c r="AE3" t="n">
-        <v>96205.47698605675</v>
+        <v>111334.3395001376</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.369969212521503e-06</v>
+        <v>1.293323980146301e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.635091145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>87023.76128776623</v>
+        <v>100708.7463969999</v>
       </c>
     </row>
     <row r="4">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.43502567016435</v>
+        <v>75.32157037034396</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.16284479459264</v>
+        <v>103.0582955338266</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.74870662474773</v>
+        <v>93.22255645133033</v>
       </c>
       <c r="AD4" t="n">
-        <v>64435.02567016435</v>
+        <v>75321.57037034396</v>
       </c>
       <c r="AE4" t="n">
-        <v>88162.84479459265</v>
+        <v>103058.2955338266</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.823634004854012e-06</v>
+        <v>1.385433617618076e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.459309895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>79748.70662474772</v>
+        <v>93222.55645133034</v>
       </c>
     </row>
     <row r="5">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.93491565480686</v>
+        <v>73.82146035498648</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.11032809139844</v>
+        <v>101.0057788306324</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.89207923498046</v>
+        <v>91.36592906156307</v>
       </c>
       <c r="AD5" t="n">
-        <v>62934.91565480686</v>
+        <v>73821.46035498648</v>
       </c>
       <c r="AE5" t="n">
-        <v>86110.32809139845</v>
+        <v>101005.7788306324</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.924780632417236e-06</v>
+        <v>1.405969879972578e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.423502604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>77892.07923498045</v>
+        <v>91365.92906156306</v>
       </c>
     </row>
   </sheetData>
@@ -6947,28 +6947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.13552343706073</v>
+        <v>78.14315917647582</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.54358792484031</v>
+        <v>106.9189178180871</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.95205953343878</v>
+        <v>96.71472636319962</v>
       </c>
       <c r="AD2" t="n">
-        <v>58135.52343706074</v>
+        <v>78143.15917647582</v>
       </c>
       <c r="AE2" t="n">
-        <v>79543.58792484031</v>
+        <v>106918.9178180871</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.801344584776644e-06</v>
+        <v>1.514526592418836e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.679036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71952.05953343879</v>
+        <v>96714.72636319962</v>
       </c>
     </row>
     <row r="3">
@@ -7053,28 +7053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.41949025278851</v>
+        <v>64.55131940435349</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.4591473823078</v>
+        <v>88.32196301222761</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.35287086022686</v>
+        <v>79.89263882301549</v>
       </c>
       <c r="AD3" t="n">
-        <v>54419.49025278851</v>
+        <v>64551.31940435349</v>
       </c>
       <c r="AE3" t="n">
-        <v>74459.1473823078</v>
+        <v>88321.96301222761</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.230612161265542e-06</v>
+        <v>1.610116097075138e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.51953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>67352.87086022686</v>
+        <v>79892.63882301548</v>
       </c>
     </row>
   </sheetData>
@@ -7350,28 +7350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.9412496996701</v>
+        <v>197.6104590088328</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.9940915853313</v>
+        <v>270.3793479739296</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.2802695113016</v>
+        <v>244.5747224831752</v>
       </c>
       <c r="AD2" t="n">
-        <v>173941.2496996701</v>
+        <v>197610.4590088328</v>
       </c>
       <c r="AE2" t="n">
-        <v>237994.0915853313</v>
+        <v>270379.3479739295</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622647914581723e-06</v>
+        <v>6.849571061103376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.300130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>215280.2695113016</v>
+        <v>244574.7224831751</v>
       </c>
     </row>
     <row r="3">
@@ -7456,28 +7456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.6360911888831</v>
+        <v>120.5134110250258</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.640692650659</v>
+        <v>164.8917656408311</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.4546335626429</v>
+        <v>149.1547269551624</v>
       </c>
       <c r="AD3" t="n">
-        <v>108636.0911888831</v>
+        <v>120513.4110250259</v>
       </c>
       <c r="AE3" t="n">
-        <v>148640.692650659</v>
+        <v>164891.7656408311</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.166200118733832e-06</v>
+        <v>9.768063489336871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.015950520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>134454.6335626429</v>
+        <v>149154.7269551624</v>
       </c>
     </row>
     <row r="4">
@@ -7562,28 +7562,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.28695311441001</v>
+        <v>109.9560729150218</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.0616159627949</v>
+        <v>150.4467498818448</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.7939810358552</v>
+        <v>136.0883232265022</v>
       </c>
       <c r="AD4" t="n">
-        <v>86286.95311441</v>
+        <v>109956.0729150218</v>
       </c>
       <c r="AE4" t="n">
-        <v>118061.6159627949</v>
+        <v>150446.7498818448</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.718972906714634e-06</v>
+        <v>1.081322619385432e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.724609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>106793.9810358552</v>
+        <v>136088.3232265022</v>
       </c>
     </row>
     <row r="5">
@@ -7668,28 +7668,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.4226209928418</v>
+        <v>93.38519217500512</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.4060221548811</v>
+        <v>127.7737397977025</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.773587759782</v>
+        <v>115.5791934030136</v>
       </c>
       <c r="AD5" t="n">
-        <v>81422.6209928418</v>
+        <v>93385.19217500511</v>
       </c>
       <c r="AE5" t="n">
-        <v>111406.0221548811</v>
+        <v>127773.7397977025</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.002490308965567e-06</v>
+        <v>1.134929059745271e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.596028645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>100773.587759782</v>
+        <v>115579.1934030136</v>
       </c>
     </row>
     <row r="6">
@@ -7774,28 +7774,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.00877972551237</v>
+        <v>89.97135090767567</v>
       </c>
       <c r="AB6" t="n">
-        <v>106.735053924876</v>
+        <v>123.1027715676973</v>
       </c>
       <c r="AC6" t="n">
-        <v>96.54841018190197</v>
+        <v>111.3540158251337</v>
       </c>
       <c r="AD6" t="n">
-        <v>78008.77972551237</v>
+        <v>89971.35090767567</v>
       </c>
       <c r="AE6" t="n">
-        <v>106735.053924876</v>
+        <v>123102.7715676973</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.203977186662466e-06</v>
+        <v>1.173025466550626e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.511393229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>96548.41018190197</v>
+        <v>111354.0158251337</v>
       </c>
     </row>
     <row r="7">
@@ -7880,28 +7880,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.74183854134246</v>
+        <v>87.53381752291357</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.6333249863096</v>
+        <v>119.7676308542841</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.74270589992744</v>
+        <v>108.3371762605081</v>
       </c>
       <c r="AD7" t="n">
-        <v>75741.83854134245</v>
+        <v>87533.81752291357</v>
       </c>
       <c r="AE7" t="n">
-        <v>103633.3249863096</v>
+        <v>119767.6308542841</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.310703014991227e-06</v>
+        <v>1.193204798421396e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.469075520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>93742.70589992744</v>
+        <v>108337.1762605081</v>
       </c>
     </row>
     <row r="8">
@@ -7986,28 +7986,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>73.71634729639121</v>
+        <v>85.5083262779623</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.8619585066016</v>
+        <v>116.9962643745761</v>
       </c>
       <c r="AC8" t="n">
-        <v>91.23583474740458</v>
+        <v>105.8303051079852</v>
       </c>
       <c r="AD8" t="n">
-        <v>73716.34729639121</v>
+        <v>85508.3262779623</v>
       </c>
       <c r="AE8" t="n">
-        <v>100861.9585066016</v>
+        <v>116996.2643745761</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.403166826798926e-06</v>
+        <v>1.210687520024233e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.433268229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>91235.83474740459</v>
+        <v>105830.3051079852</v>
       </c>
     </row>
     <row r="9">
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>73.06064407644034</v>
+        <v>84.85262305801143</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.96479643348077</v>
+        <v>116.0991023014553</v>
       </c>
       <c r="AC9" t="n">
-        <v>90.42429656336728</v>
+        <v>105.0187669239479</v>
       </c>
       <c r="AD9" t="n">
-        <v>73060.64407644034</v>
+        <v>84852.62305801144</v>
       </c>
       <c r="AE9" t="n">
-        <v>99964.79643348078</v>
+        <v>116099.1023014553</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.426330638866693e-06</v>
+        <v>1.215067249452687e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.423502604166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>90424.29656336727</v>
+        <v>105018.7669239479</v>
       </c>
     </row>
     <row r="10">
@@ -8198,28 +8198,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>73.26968450066435</v>
+        <v>85.06166348223547</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.2508147641166</v>
+        <v>116.3851206320911</v>
       </c>
       <c r="AC10" t="n">
-        <v>90.68301770595656</v>
+        <v>105.2774880665372</v>
       </c>
       <c r="AD10" t="n">
-        <v>73269.68450066436</v>
+        <v>85061.66348223547</v>
       </c>
       <c r="AE10" t="n">
-        <v>100250.8147641166</v>
+        <v>116385.1206320911</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.423171937221087e-06</v>
+        <v>1.214470013621534e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.425130208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>90683.01770595656</v>
+        <v>105277.4880665372</v>
       </c>
     </row>
   </sheetData>
@@ -8495,28 +8495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.35261057532473</v>
+        <v>62.23754041469499</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.63115142330737</v>
+        <v>85.15614852185361</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.79477486643528</v>
+        <v>77.02896522435323</v>
       </c>
       <c r="AD2" t="n">
-        <v>52352.61057532472</v>
+        <v>62237.54041469499</v>
       </c>
       <c r="AE2" t="n">
-        <v>71631.15142330737</v>
+        <v>85156.14852185361</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.206085071844623e-06</v>
+        <v>1.652043102029844e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.587890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>64794.77486643527</v>
+        <v>77028.96522435323</v>
       </c>
     </row>
     <row r="3">
@@ -8601,28 +8601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.43546439854471</v>
+        <v>62.32039423791498</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.7445156794896</v>
+        <v>85.26951277803586</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.89731979711524</v>
+        <v>77.1315101550332</v>
       </c>
       <c r="AD3" t="n">
-        <v>52435.46439854471</v>
+        <v>62320.39423791497</v>
       </c>
       <c r="AE3" t="n">
-        <v>71744.51567948959</v>
+        <v>85269.51277803586</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.216852903671819e-06</v>
+        <v>1.654511699349551e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.5830078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>64897.31979711524</v>
+        <v>77131.5101550332</v>
       </c>
     </row>
   </sheetData>
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.9651833566107</v>
+        <v>146.7557646899243</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.6146328263508</v>
+        <v>200.7977116560623</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.4268503250833</v>
+        <v>181.6338598770231</v>
       </c>
       <c r="AD2" t="n">
-        <v>123965.1833566107</v>
+        <v>146755.7646899243</v>
       </c>
       <c r="AE2" t="n">
-        <v>169614.6328263508</v>
+        <v>200797.7116560623</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.403665226047902e-06</v>
+        <v>8.631122984690309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.678385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>153426.8503250833</v>
+        <v>181633.8598770231</v>
       </c>
     </row>
     <row r="3">
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.51064366899138</v>
+        <v>104.2158841477334</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.5264586636753</v>
+        <v>142.5927703711892</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.8825299772106</v>
+        <v>128.9839164972116</v>
       </c>
       <c r="AD3" t="n">
-        <v>81510.64366899138</v>
+        <v>104215.8841477334</v>
       </c>
       <c r="AE3" t="n">
-        <v>111526.4586636753</v>
+        <v>142592.7703711892</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.800733293219701e-06</v>
+        <v>1.13693570889583e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.79296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>100882.5299772106</v>
+        <v>128983.9164972116</v>
       </c>
     </row>
     <row r="4">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.17000068955502</v>
+        <v>85.65063221078348</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.4826670929032</v>
+        <v>117.1909736299566</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.79730377739976</v>
+        <v>106.0064315853084</v>
       </c>
       <c r="AD4" t="n">
-        <v>74170.00068955502</v>
+        <v>85650.63221078349</v>
       </c>
       <c r="AE4" t="n">
-        <v>101482.6670929032</v>
+        <v>117190.9736299566</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.284368224942399e-06</v>
+        <v>1.231727487133186e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>91797.30377739976</v>
+        <v>106006.4315853084</v>
       </c>
     </row>
     <row r="5">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.1656360222529</v>
+        <v>81.47567534288915</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.00371869500208</v>
+        <v>111.4786134572086</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.84125852484023</v>
+        <v>100.8392510500979</v>
       </c>
       <c r="AD5" t="n">
-        <v>70165.6360222529</v>
+        <v>81475.67534288915</v>
       </c>
       <c r="AE5" t="n">
-        <v>96003.71869500208</v>
+        <v>111478.6134572086</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.548377170181147e-06</v>
+        <v>1.283472875541356e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.473958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>86841.25852484023</v>
+        <v>100839.2510500979</v>
       </c>
     </row>
     <row r="6">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.4917497532535</v>
+        <v>78.80178907388976</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.34518953822221</v>
+        <v>107.8200843004287</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.53189425600434</v>
+        <v>97.52988678126198</v>
       </c>
       <c r="AD6" t="n">
-        <v>67491.74975325351</v>
+        <v>78801.78907388977</v>
       </c>
       <c r="AE6" t="n">
-        <v>92345.18953822221</v>
+        <v>107820.0843004287</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.692173976012278e-06</v>
+        <v>1.311656850758019e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.420247395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>83531.89425600434</v>
+        <v>97529.88678126197</v>
       </c>
     </row>
     <row r="7">
@@ -9428,28 +9428,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.07935101504805</v>
+        <v>78.38939033568433</v>
       </c>
       <c r="AB7" t="n">
-        <v>91.78092739086152</v>
+        <v>107.255822153068</v>
       </c>
       <c r="AC7" t="n">
-        <v>83.02148449604066</v>
+        <v>97.01947702129831</v>
       </c>
       <c r="AD7" t="n">
-        <v>67079.35101504804</v>
+        <v>78389.39033568432</v>
       </c>
       <c r="AE7" t="n">
-        <v>91780.92739086151</v>
+        <v>107255.822153068</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.722525550945493e-06</v>
+        <v>1.317605717499252e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.408854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>83021.48449604066</v>
+        <v>97019.47702129831</v>
       </c>
     </row>
   </sheetData>
@@ -9725,28 +9725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.2620955784721</v>
+        <v>177.0290456673421</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.6492753310868</v>
+        <v>242.2189502522419</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.0722216855167</v>
+        <v>219.10191359667</v>
       </c>
       <c r="AD2" t="n">
-        <v>142262.0955784721</v>
+        <v>177029.0456673421</v>
       </c>
       <c r="AE2" t="n">
-        <v>194649.2753310868</v>
+        <v>242218.9502522419</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.978913330068566e-06</v>
+        <v>7.650268919701201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.987630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>176072.2216855167</v>
+        <v>219101.91359667</v>
       </c>
     </row>
     <row r="3">
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.84130553245629</v>
+        <v>112.0477192098935</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.5565936312395</v>
+        <v>153.3086326194088</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.9554029408565</v>
+        <v>138.6770718922717</v>
       </c>
       <c r="AD3" t="n">
-        <v>88841.30553245629</v>
+        <v>112047.7192098935</v>
       </c>
       <c r="AE3" t="n">
-        <v>121556.5936312395</v>
+        <v>153308.6326194088</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.475685985672431e-06</v>
+        <v>1.052811831654332e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.898763020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>109955.4029408565</v>
+        <v>138677.0718922717</v>
       </c>
     </row>
     <row r="4">
@@ -9937,28 +9937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.92865892293717</v>
+        <v>103.1350726003744</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.3619173418837</v>
+        <v>141.1139563300531</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.92456944121729</v>
+        <v>127.6462383926325</v>
       </c>
       <c r="AD4" t="n">
-        <v>79928.65892293717</v>
+        <v>103135.0726003744</v>
       </c>
       <c r="AE4" t="n">
-        <v>109361.9173418837</v>
+        <v>141113.9563300531</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.007566308538635e-06</v>
+        <v>1.155076625216795e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.6416015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>98924.56944121729</v>
+        <v>127646.2383926325</v>
       </c>
     </row>
     <row r="5">
@@ -10043,28 +10043,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.83868304754729</v>
+        <v>87.56990116812334</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.7658319121771</v>
+        <v>119.8170020895582</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.86256655076481</v>
+        <v>108.3818355743806</v>
       </c>
       <c r="AD5" t="n">
-        <v>75838.6830475473</v>
+        <v>87569.90116812334</v>
       </c>
       <c r="AE5" t="n">
-        <v>103765.8319121771</v>
+        <v>119817.0020895582</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.267607522302918e-06</v>
+        <v>1.205074829512137e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.532552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>93862.56655076481</v>
+        <v>108381.8355743806</v>
       </c>
     </row>
     <row r="6">
@@ -10149,28 +10149,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.71891217594279</v>
+        <v>84.27953809592664</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.49722377107284</v>
+        <v>115.314982173607</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.00134837961704</v>
+        <v>104.3094821205818</v>
       </c>
       <c r="AD6" t="n">
-        <v>72718.91217594279</v>
+        <v>84279.53809592663</v>
       </c>
       <c r="AE6" t="n">
-        <v>99497.22377107284</v>
+        <v>115314.982173607</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.444673455634728e-06</v>
+        <v>1.23911935107207e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.462565104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>90001.34837961705</v>
+        <v>104309.4821205818</v>
       </c>
     </row>
     <row r="7">
@@ -10255,28 +10255,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.40729852020124</v>
+        <v>81.96792444018507</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.33437198609181</v>
+        <v>112.152130388626</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.14035472990325</v>
+        <v>101.448488470868</v>
       </c>
       <c r="AD7" t="n">
-        <v>70407.29852020124</v>
+        <v>81967.92444018507</v>
       </c>
       <c r="AE7" t="n">
-        <v>96334.37198609181</v>
+        <v>112152.130388626</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.553584605156551e-06</v>
+        <v>1.260059731348746e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>87140.35472990325</v>
+        <v>101448.488470868</v>
       </c>
     </row>
     <row r="8">
@@ -10361,28 +10361,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>69.89282941846299</v>
+        <v>81.45345533844683</v>
       </c>
       <c r="AB8" t="n">
-        <v>95.63045266431897</v>
+        <v>111.4482110668532</v>
       </c>
       <c r="AC8" t="n">
-        <v>86.50361648024322</v>
+        <v>100.811750221208</v>
       </c>
       <c r="AD8" t="n">
-        <v>69892.82941846299</v>
+        <v>81453.45533844683</v>
       </c>
       <c r="AE8" t="n">
-        <v>95630.45266431896</v>
+        <v>111448.2110668532</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.58371311473779e-06</v>
+        <v>1.265852549169242e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.410481770833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>86503.61648024322</v>
+        <v>100811.750221208</v>
       </c>
     </row>
   </sheetData>
@@ -10658,28 +10658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.5215573485546</v>
+        <v>235.7147828120912</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.9941970340439</v>
+        <v>322.5153648456455</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.9400140189568</v>
+        <v>291.7349510780303</v>
       </c>
       <c r="AD2" t="n">
-        <v>199521.5573485546</v>
+        <v>235714.7828120912</v>
       </c>
       <c r="AE2" t="n">
-        <v>272994.1970340438</v>
+        <v>322515.3648456455</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.267959152094784e-06</v>
+        <v>6.087960037336346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>246940.0140189567</v>
+        <v>291734.9510780303</v>
       </c>
     </row>
     <row r="3">
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.7163182394393</v>
+        <v>129.8092631873598</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.064659892569</v>
+        <v>177.6107606733837</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.6928748081365</v>
+        <v>160.6598389530338</v>
       </c>
       <c r="AD3" t="n">
-        <v>117716.3182394393</v>
+        <v>129809.2631873598</v>
       </c>
       <c r="AE3" t="n">
-        <v>161064.6598925689</v>
+        <v>177610.7606733837</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.861093944361242e-06</v>
+        <v>9.05584932175144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>145692.8748081365</v>
+        <v>160659.8389530338</v>
       </c>
     </row>
     <row r="4">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.28035691188485</v>
+        <v>116.380726936052</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.2620554488103</v>
+        <v>159.2372449491455</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.211782086717</v>
+        <v>144.0398657821197</v>
       </c>
       <c r="AD4" t="n">
-        <v>92280.35691188485</v>
+        <v>116380.726936052</v>
       </c>
       <c r="AE4" t="n">
-        <v>126262.0554488103</v>
+        <v>159237.2449491455</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.474612712720472e-06</v>
+        <v>1.01987882539999e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.7978515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>114211.782086717</v>
+        <v>144039.8657821197</v>
       </c>
     </row>
     <row r="5">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.87577279120673</v>
+        <v>110.9761428153739</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.8672650214786</v>
+        <v>151.8424545218138</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.5227400791139</v>
+        <v>137.3508237745167</v>
       </c>
       <c r="AD5" t="n">
-        <v>86875.77279120673</v>
+        <v>110976.1428153739</v>
       </c>
       <c r="AE5" t="n">
-        <v>118867.2650214786</v>
+        <v>151842.4545218138</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.770690338929728e-06</v>
+        <v>1.07503584151985e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.654622395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>107522.7400791139</v>
+        <v>137350.8237745167</v>
       </c>
     </row>
     <row r="6">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.19232118991336</v>
+        <v>95.37051748385437</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.8274040381757</v>
+        <v>130.4901494716397</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.9638763545665</v>
+        <v>118.0363527501761</v>
       </c>
       <c r="AD6" t="n">
-        <v>83192.32118991336</v>
+        <v>95370.51748385438</v>
       </c>
       <c r="AE6" t="n">
-        <v>113827.4040381757</v>
+        <v>130490.1494716397</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.969832187963035e-06</v>
+        <v>1.112134457575039e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.565104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>102963.8763545665</v>
+        <v>118036.3527501761</v>
       </c>
     </row>
     <row r="7">
@@ -11188,28 +11188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.85929056199983</v>
+        <v>93.03748685594083</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.6352486070189</v>
+        <v>127.2979940404829</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.07637575754</v>
+        <v>115.1488521531496</v>
       </c>
       <c r="AD7" t="n">
-        <v>80859.29056199983</v>
+        <v>93037.48685594082</v>
       </c>
       <c r="AE7" t="n">
-        <v>110635.2486070189</v>
+        <v>127297.9940404829</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.086343345384224e-06</v>
+        <v>1.133839602507139e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.516276041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>100076.37575754</v>
+        <v>115148.8521531496</v>
       </c>
     </row>
     <row r="8">
@@ -11294,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.94457372856529</v>
+        <v>90.95217782191408</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.0154485641701</v>
+        <v>124.4447822227872</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.70660575386738</v>
+        <v>112.5679468668259</v>
       </c>
       <c r="AD8" t="n">
-        <v>78944.57372856529</v>
+        <v>90952.17782191408</v>
       </c>
       <c r="AE8" t="n">
-        <v>108015.4485641701</v>
+        <v>124444.7822227872</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.174526668892828e-06</v>
+        <v>1.150267486837816e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.48046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>97706.60575386738</v>
+        <v>112567.9468668259</v>
       </c>
     </row>
     <row r="9">
@@ -11400,28 +11400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>76.55542891027127</v>
+        <v>88.56303300362008</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.7465152221513</v>
+        <v>121.1758488807685</v>
       </c>
       <c r="AC9" t="n">
-        <v>94.74965482203312</v>
+        <v>109.6109959349917</v>
       </c>
       <c r="AD9" t="n">
-        <v>76555.42891027128</v>
+        <v>88563.03300362008</v>
       </c>
       <c r="AE9" t="n">
-        <v>104746.5152221513</v>
+        <v>121175.8488807685</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.278144426825566e-06</v>
+        <v>1.169570689237042e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.439778645833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>94749.65482203312</v>
+        <v>109610.9959349917</v>
       </c>
     </row>
     <row r="10">
@@ -11506,28 +11506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>75.86838287537809</v>
+        <v>87.87598696872688</v>
       </c>
       <c r="AB10" t="n">
-        <v>103.8064685268791</v>
+        <v>120.2358021854962</v>
       </c>
       <c r="AC10" t="n">
-        <v>93.89932486399351</v>
+        <v>108.7606659769521</v>
       </c>
       <c r="AD10" t="n">
-        <v>75868.38287537808</v>
+        <v>87875.98696872688</v>
       </c>
       <c r="AE10" t="n">
-        <v>103806.4685268791</v>
+        <v>120235.8021854962</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.294331760489899e-06</v>
+        <v>1.172586266723569e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.433268229166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>93899.32486399352</v>
+        <v>108760.6659769521</v>
       </c>
     </row>
     <row r="11">
@@ -11612,28 +11612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>75.83855834320156</v>
+        <v>87.84616243655037</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.7656612861897</v>
+        <v>120.1949949448068</v>
       </c>
       <c r="AC11" t="n">
-        <v>93.86241220908219</v>
+        <v>108.7237533220407</v>
       </c>
       <c r="AD11" t="n">
-        <v>75838.55834320156</v>
+        <v>87846.16243655037</v>
       </c>
       <c r="AE11" t="n">
-        <v>103765.6612861897</v>
+        <v>120194.9949448068</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.288685016188387e-06</v>
+        <v>1.171534321088734e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.4365234375</v>
       </c>
       <c r="AH11" t="n">
-        <v>93862.41220908219</v>
+        <v>108723.7533220407</v>
       </c>
     </row>
   </sheetData>
@@ -11909,28 +11909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.5034142178025</v>
+        <v>130.5737889954281</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.4591581655317</v>
+        <v>178.6568186124805</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.2904244739909</v>
+        <v>161.6060625905751</v>
       </c>
       <c r="AD2" t="n">
-        <v>108503.4142178025</v>
+        <v>130573.7889954281</v>
       </c>
       <c r="AE2" t="n">
-        <v>148459.1581655317</v>
+        <v>178656.8186124805</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859029852117134e-06</v>
+        <v>9.73991248626166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.409830729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134290.4244739909</v>
+        <v>161606.0625905751</v>
       </c>
     </row>
     <row r="3">
@@ -12015,28 +12015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.02862694729437</v>
+        <v>96.18425307094056</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2892333017729</v>
+        <v>131.603538401371</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.6223310358089</v>
+        <v>119.0434814031053</v>
       </c>
       <c r="AD3" t="n">
-        <v>74028.62694729437</v>
+        <v>96184.25307094055</v>
       </c>
       <c r="AE3" t="n">
-        <v>101289.2333017729</v>
+        <v>131603.538401371</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.169086366809766e-06</v>
+        <v>1.236591730481687e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.685546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>91622.33103580889</v>
+        <v>119043.4814031053</v>
       </c>
     </row>
     <row r="4">
@@ -12121,28 +12121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.90946029740499</v>
+        <v>79.11528464108551</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.9167195328186</v>
+        <v>108.249022765914</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.04887823006402</v>
+        <v>97.91788796162044</v>
       </c>
       <c r="AD4" t="n">
-        <v>67909.46029740499</v>
+        <v>79115.28464108551</v>
       </c>
       <c r="AE4" t="n">
-        <v>92916.71953281861</v>
+        <v>108249.022765914</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.618396959748181e-06</v>
+        <v>1.326655919991939e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.503255208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>84048.87823006402</v>
+        <v>97917.88796162044</v>
       </c>
     </row>
     <row r="5">
@@ -12227,28 +12227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.58333192177618</v>
+        <v>75.61856406486447</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.36576395085788</v>
+        <v>103.4646554091065</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.93225946153791</v>
+        <v>93.59013391044329</v>
       </c>
       <c r="AD5" t="n">
-        <v>64583.33192177617</v>
+        <v>75618.56406486448</v>
       </c>
       <c r="AE5" t="n">
-        <v>88365.76395085789</v>
+        <v>103464.6554091065</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.832514380312306e-06</v>
+        <v>1.369575700309197e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.425130208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>79932.25946153791</v>
+        <v>93590.13391044328</v>
       </c>
     </row>
     <row r="6">
@@ -12333,28 +12333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.49184067400112</v>
+        <v>75.52707281708945</v>
       </c>
       <c r="AB6" t="n">
-        <v>88.24058158934315</v>
+        <v>103.3394730475917</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.81902432891155</v>
+        <v>93.47689877781693</v>
       </c>
       <c r="AD6" t="n">
-        <v>64491.84067400113</v>
+        <v>75527.07281708944</v>
       </c>
       <c r="AE6" t="n">
-        <v>88240.58158934316</v>
+        <v>103339.4730475917</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.856033697549734e-06</v>
+        <v>1.374290141228496e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.4169921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>79819.02432891155</v>
+        <v>93476.89877781692</v>
       </c>
     </row>
   </sheetData>
@@ -12630,28 +12630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.57113584886476</v>
+        <v>98.21647436428771</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.8186914342188</v>
+        <v>134.384113230203</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.3833636903579</v>
+        <v>121.5586820728359</v>
       </c>
       <c r="AD2" t="n">
-        <v>87571.13584886475</v>
+        <v>98216.4743642877</v>
       </c>
       <c r="AE2" t="n">
-        <v>119818.6914342188</v>
+        <v>134384.113230203</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.697314401702582e-06</v>
+        <v>1.191913802653662e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.030598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>108383.3636903579</v>
+        <v>121558.6820728359</v>
       </c>
     </row>
     <row r="3">
@@ -12736,28 +12736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.49058194481002</v>
+        <v>73.22117180625355</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.50237110676127</v>
+        <v>100.1844375553947</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.34214481168385</v>
+        <v>90.62297544487409</v>
       </c>
       <c r="AD3" t="n">
-        <v>62490.58194481002</v>
+        <v>73221.17180625355</v>
       </c>
       <c r="AE3" t="n">
-        <v>85502.37110676127</v>
+        <v>100184.4375553947</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.837116666731671e-06</v>
+        <v>1.430367564583685e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.5244140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>77342.14481168386</v>
+        <v>90622.97544487409</v>
       </c>
     </row>
     <row r="4">
@@ -12842,28 +12842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.74211776787786</v>
+        <v>70.30211542872918</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.74180116620276</v>
+        <v>96.19045583998933</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.94047838825799</v>
+        <v>87.01017373879716</v>
       </c>
       <c r="AD4" t="n">
-        <v>59742.11776787786</v>
+        <v>70302.11542872919</v>
       </c>
       <c r="AE4" t="n">
-        <v>81741.80116620276</v>
+        <v>96190.45583998933</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.057610656588885e-06</v>
+        <v>1.476496286185296e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.4462890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>73940.47838825798</v>
+        <v>87010.17373879717</v>
       </c>
     </row>
   </sheetData>
@@ -23160,28 +23160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.52957426687787</v>
+        <v>84.97500381809397</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.29221035580572</v>
+        <v>116.2665490564582</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.86572571836439</v>
+        <v>105.1702327956664</v>
       </c>
       <c r="AD2" t="n">
-        <v>64529.57426687787</v>
+        <v>84975.00381809397</v>
       </c>
       <c r="AE2" t="n">
-        <v>88292.21035580573</v>
+        <v>116266.5490564582</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.373379242421477e-06</v>
+        <v>1.385480723962364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.801106770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79865.72571836438</v>
+        <v>105170.2327956664</v>
       </c>
     </row>
     <row r="3">
@@ -23266,28 +23266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.16014530448536</v>
+        <v>66.34027916135865</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.84078841631938</v>
+        <v>90.76969667509519</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.50721141660735</v>
+        <v>82.10676422051553</v>
       </c>
       <c r="AD3" t="n">
-        <v>56160.14530448536</v>
+        <v>66340.27916135865</v>
       </c>
       <c r="AE3" t="n">
-        <v>76840.78841631938</v>
+        <v>90769.69667509518</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.192597427423907e-06</v>
+        <v>1.563566941786281e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.482096354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>69507.21141660734</v>
+        <v>82106.76422051553</v>
       </c>
     </row>
     <row r="4">
@@ -23372,28 +23372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.39329777574131</v>
+        <v>66.57343163261459</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.15979791345271</v>
+        <v>91.0887061722285</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.79577509506699</v>
+        <v>82.39532789897517</v>
       </c>
       <c r="AD4" t="n">
-        <v>56393.29777574131</v>
+        <v>66573.43163261459</v>
       </c>
       <c r="AE4" t="n">
-        <v>77159.79791345271</v>
+        <v>91088.7061722285</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.192378003777194e-06</v>
+        <v>1.563519242250236e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.482096354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>69795.77509506699</v>
+        <v>82395.32789897517</v>
       </c>
     </row>
   </sheetData>
@@ -23669,28 +23669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.88205588651606</v>
+        <v>68.82146971402533</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.25082950490051</v>
+        <v>94.16457105165374</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.73706612760849</v>
+        <v>85.17763655131253</v>
       </c>
       <c r="AD2" t="n">
-        <v>49882.05588651606</v>
+        <v>68821.46971402533</v>
       </c>
       <c r="AE2" t="n">
-        <v>68250.82950490051</v>
+        <v>94164.57105165374</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.118951194330883e-06</v>
+        <v>1.693261736772074e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.692057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61737.06612760849</v>
+        <v>85177.63655131253</v>
       </c>
     </row>
   </sheetData>
@@ -23966,28 +23966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.4844716247756</v>
+        <v>155.5309842270824</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.2710988793209</v>
+        <v>212.8043541621593</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.9708396179145</v>
+        <v>192.4946052737706</v>
       </c>
       <c r="AD2" t="n">
-        <v>132484.4716247756</v>
+        <v>155530.9842270824</v>
       </c>
       <c r="AE2" t="n">
-        <v>181271.0988793209</v>
+        <v>212804.3541621593</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.193036442538425e-06</v>
+        <v>8.136915091181671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.8232421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>163970.8396179145</v>
+        <v>192494.6052737706</v>
       </c>
     </row>
     <row r="3">
@@ -24072,28 +24072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.17855455454345</v>
+        <v>108.1397263022787</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.545056154093</v>
+        <v>147.9615443147338</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.4221595667902</v>
+        <v>133.8403021907075</v>
       </c>
       <c r="AD3" t="n">
-        <v>85178.55455454346</v>
+        <v>108139.7263022787</v>
       </c>
       <c r="AE3" t="n">
-        <v>116545.056154093</v>
+        <v>147961.5443147338</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.630499815368538e-06</v>
+        <v>1.092642516859023e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8466796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>105422.1595667902</v>
+        <v>133840.3021907075</v>
       </c>
     </row>
     <row r="4">
@@ -24178,28 +24178,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.37574381673036</v>
+        <v>88.98434097245541</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.8689062669076</v>
+        <v>121.7523010305245</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.76492644076394</v>
+        <v>110.1324323006308</v>
       </c>
       <c r="AD4" t="n">
-        <v>77375.74381673036</v>
+        <v>88984.34097245541</v>
       </c>
       <c r="AE4" t="n">
-        <v>105868.9062669076</v>
+        <v>121752.3010305245</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.123966209918904e-06</v>
+        <v>1.188403529381419e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>95764.92644076394</v>
+        <v>110132.4323006308</v>
       </c>
     </row>
     <row r="5">
@@ -24284,28 +24284,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.94858466530056</v>
+        <v>84.55718182102562</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.81147180344712</v>
+        <v>115.694866567064</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.28560502083151</v>
+        <v>104.6531108806984</v>
       </c>
       <c r="AD5" t="n">
-        <v>72948.58466530056</v>
+        <v>84557.18182102562</v>
       </c>
       <c r="AE5" t="n">
-        <v>99811.47180344712</v>
+        <v>115694.866567064</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.398125148739144e-06</v>
+        <v>1.24160621524499e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.5048828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>90285.60502083151</v>
+        <v>104653.1108806984</v>
       </c>
     </row>
     <row r="6">
@@ -24390,28 +24390,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.18995791960603</v>
+        <v>81.62796287473888</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.03699698796703</v>
+        <v>111.686979976737</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.87136078423097</v>
+        <v>101.0277313614468</v>
       </c>
       <c r="AD6" t="n">
-        <v>70189.95791960604</v>
+        <v>81627.96287473888</v>
       </c>
       <c r="AE6" t="n">
-        <v>96036.99698796702</v>
+        <v>111686.979976737</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.567997336046943e-06</v>
+        <v>1.27457124150744e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.439778645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>86871.36078423097</v>
+        <v>101027.7313614468</v>
       </c>
     </row>
     <row r="7">
@@ -24496,28 +24496,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>68.48873008794803</v>
+        <v>79.92673504308087</v>
       </c>
       <c r="AB7" t="n">
-        <v>93.70930201581876</v>
+        <v>109.3592850045887</v>
       </c>
       <c r="AC7" t="n">
-        <v>84.76581775328339</v>
+        <v>98.92218833049922</v>
       </c>
       <c r="AD7" t="n">
-        <v>68488.73008794803</v>
+        <v>79926.73504308087</v>
       </c>
       <c r="AE7" t="n">
-        <v>93709.30201581876</v>
+        <v>109359.2850045887</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.647467976717896e-06</v>
+        <v>1.28999314075022e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.410481770833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>84765.81775328338</v>
+        <v>98922.18833049922</v>
       </c>
     </row>
     <row r="8">
@@ -24602,28 +24602,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.66618654111944</v>
+        <v>80.1041914962523</v>
       </c>
       <c r="AB8" t="n">
-        <v>93.95210576387394</v>
+        <v>109.602088752644</v>
       </c>
       <c r="AC8" t="n">
-        <v>84.98544865240146</v>
+        <v>99.14181922961731</v>
       </c>
       <c r="AD8" t="n">
-        <v>68666.18654111944</v>
+        <v>80104.1914962523</v>
       </c>
       <c r="AE8" t="n">
-        <v>93952.10576387394</v>
+        <v>109602.088752644</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.647861883239189e-06</v>
+        <v>1.290069581390829e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.410481770833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>84985.44865240146</v>
+        <v>99141.81922961731</v>
       </c>
     </row>
   </sheetData>
@@ -24899,28 +24899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.9596306753754</v>
+        <v>209.8480407376035</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.4381706498312</v>
+        <v>287.1233471792279</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.1549487493008</v>
+        <v>259.7206979046757</v>
       </c>
       <c r="AD2" t="n">
-        <v>185959.6306753754</v>
+        <v>209848.0407376035</v>
       </c>
       <c r="AE2" t="n">
-        <v>254438.1706498312</v>
+        <v>287123.3471792279</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444221816500989e-06</v>
+        <v>6.4627110522761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.484049479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>230154.9487493008</v>
+        <v>259720.6979046756</v>
       </c>
     </row>
     <row r="3">
@@ -25005,28 +25005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.144543095799</v>
+        <v>125.1314633084744</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.8093554485588</v>
+        <v>171.2103885091301</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.0345678408857</v>
+        <v>154.8703093251558</v>
       </c>
       <c r="AD3" t="n">
-        <v>113144.543095799</v>
+        <v>125131.4633084744</v>
       </c>
       <c r="AE3" t="n">
-        <v>154809.3554485588</v>
+        <v>171210.3885091301</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.009897963365565e-06</v>
+        <v>9.400533607765931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.082682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>140034.5678408857</v>
+        <v>154870.3093251558</v>
       </c>
     </row>
     <row r="4">
@@ -25111,28 +25111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.57118537861815</v>
+        <v>113.4595059322952</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.5552474367839</v>
+        <v>155.2403014966322</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.8587466288195</v>
+        <v>140.4243850029678</v>
       </c>
       <c r="AD4" t="n">
-        <v>89571.18537861816</v>
+        <v>113459.5059322952</v>
       </c>
       <c r="AE4" t="n">
-        <v>122555.2474367839</v>
+        <v>155240.3014966323</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.575947918880881e-06</v>
+        <v>1.046266534565894e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.770182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>110858.7466288195</v>
+        <v>140424.3850029678</v>
       </c>
     </row>
     <row r="5">
@@ -25217,28 +25217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.19662859087153</v>
+        <v>96.26880014956745</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.2015417310815</v>
+        <v>131.7192194443021</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.2068682746762</v>
+        <v>119.1481220096585</v>
       </c>
       <c r="AD5" t="n">
-        <v>84196.62859087152</v>
+        <v>96268.80014956745</v>
       </c>
       <c r="AE5" t="n">
-        <v>115201.5417310815</v>
+        <v>131719.2194443021</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.881510510123013e-06</v>
+        <v>1.103602061741343e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.625325520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>104206.8682746762</v>
+        <v>119148.1220096585</v>
       </c>
     </row>
     <row r="6">
@@ -25323,28 +25323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.63144221669116</v>
+        <v>92.70361377538705</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.3234964490081</v>
+        <v>126.8411741622287</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.7943767879428</v>
+        <v>114.7356305229251</v>
       </c>
       <c r="AD6" t="n">
-        <v>80631.44221669115</v>
+        <v>92703.61377538706</v>
       </c>
       <c r="AE6" t="n">
-        <v>110323.4964490081</v>
+        <v>126841.1741622287</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.081929203509156e-06</v>
+        <v>1.141208469627848e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.5390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>99794.37678794279</v>
+        <v>114735.6305229251</v>
       </c>
     </row>
     <row r="7">
@@ -25429,28 +25429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>78.48206554690259</v>
+        <v>90.38364490500634</v>
       </c>
       <c r="AB7" t="n">
-        <v>107.3826244655986</v>
+        <v>123.6668904039723</v>
       </c>
       <c r="AC7" t="n">
-        <v>97.13417749908916</v>
+        <v>111.8642959514205</v>
       </c>
       <c r="AD7" t="n">
-        <v>78482.0655469026</v>
+        <v>90383.64490500634</v>
       </c>
       <c r="AE7" t="n">
-        <v>107382.6244655986</v>
+        <v>123666.8904039723</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.191533176454704e-06</v>
+        <v>1.161774473940781e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.4951171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>97134.17749908916</v>
+        <v>111864.2959514205</v>
       </c>
     </row>
     <row r="8">
@@ -25535,28 +25535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.35842894993127</v>
+        <v>88.260008308035</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.4769711853894</v>
+        <v>120.7612371237631</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.50583568983222</v>
+        <v>109.2359541421635</v>
       </c>
       <c r="AD8" t="n">
-        <v>76358.42894993127</v>
+        <v>88260.008308035</v>
       </c>
       <c r="AE8" t="n">
-        <v>104476.9711853894</v>
+        <v>120761.2371237631</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.286428391126174e-06</v>
+        <v>1.179580538280982e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.457682291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>94505.83568983222</v>
+        <v>109235.9541421635</v>
       </c>
     </row>
     <row r="9">
@@ -25641,28 +25641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.83143171914938</v>
+        <v>86.7330110772531</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.3876662078713</v>
+        <v>118.671932146245</v>
       </c>
       <c r="AC9" t="n">
-        <v>92.61593104700982</v>
+        <v>107.3460494993411</v>
       </c>
       <c r="AD9" t="n">
-        <v>74831.43171914938</v>
+        <v>86733.01107725309</v>
       </c>
       <c r="AE9" t="n">
-        <v>102387.6662078713</v>
+        <v>118671.932146245</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.348679651950658e-06</v>
+        <v>1.191261316488155e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.433268229166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>92615.93104700983</v>
+        <v>107346.0494993411</v>
       </c>
     </row>
     <row r="10">
@@ -25747,28 +25747,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>74.13257983707801</v>
+        <v>86.03415919518174</v>
       </c>
       <c r="AB10" t="n">
-        <v>101.4314662316526</v>
+        <v>117.7157321700264</v>
       </c>
       <c r="AC10" t="n">
-        <v>91.7509894544861</v>
+        <v>106.4811079068174</v>
       </c>
       <c r="AD10" t="n">
-        <v>74132.57983707801</v>
+        <v>86034.15919518174</v>
       </c>
       <c r="AE10" t="n">
-        <v>101431.4662316527</v>
+        <v>117715.7321700264</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.375440102488013e-06</v>
+        <v>1.196282626632091e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>91750.9894544861</v>
+        <v>106481.1079068174</v>
       </c>
     </row>
   </sheetData>
@@ -26044,28 +26044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.25201752375522</v>
+        <v>65.48706259565014</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.65229498786928</v>
+        <v>89.60228812863511</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.48197069430667</v>
+        <v>81.05077150726103</v>
       </c>
       <c r="AD2" t="n">
-        <v>47252.01752375522</v>
+        <v>65487.06259565015</v>
       </c>
       <c r="AE2" t="n">
-        <v>64652.29498786929</v>
+        <v>89602.2881286351</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.736165634268198e-06</v>
+        <v>1.684663904684956e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.945963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58481.97069430667</v>
+        <v>81050.77150726103</v>
       </c>
     </row>
   </sheetData>
@@ -26341,28 +26341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.27960252557934</v>
+        <v>105.0936390084731</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.9975114979573</v>
+        <v>143.7937532954641</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.6861700497709</v>
+        <v>130.0702792967842</v>
       </c>
       <c r="AD2" t="n">
-        <v>94279.60252557934</v>
+        <v>105093.6390084732</v>
       </c>
       <c r="AE2" t="n">
-        <v>128997.5114979573</v>
+        <v>143793.7532954641</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394587468898633e-06</v>
+        <v>1.11089847380799e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.152669270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>116686.1700497709</v>
+        <v>130070.2792967842</v>
       </c>
     </row>
     <row r="3">
@@ -26447,28 +26447,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.43152453645597</v>
+        <v>77.33081236537036</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.89454262276512</v>
+        <v>105.8074290729212</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.21969504616226</v>
+        <v>95.70931654388775</v>
       </c>
       <c r="AD3" t="n">
-        <v>66431.52453645597</v>
+        <v>77330.81236537037</v>
       </c>
       <c r="AE3" t="n">
-        <v>90894.54262276512</v>
+        <v>105807.4290729212</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.599817968372432e-06</v>
+        <v>1.359089596886699e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>82219.69504616226</v>
+        <v>95709.31654388775</v>
       </c>
     </row>
     <row r="4">
@@ -26553,28 +26553,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.51635018913503</v>
+        <v>72.24504581745722</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.16938423857573</v>
+        <v>98.84885891388491</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.1363763393387</v>
+        <v>89.41486255441315</v>
       </c>
       <c r="AD4" t="n">
-        <v>61516.35018913502</v>
+        <v>72245.04581745723</v>
       </c>
       <c r="AE4" t="n">
-        <v>84169.38423857573</v>
+        <v>98848.85891388491</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.974701926195231e-06</v>
+        <v>1.436288830192572e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.438151041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>76136.37633933869</v>
+        <v>89414.86255441315</v>
       </c>
     </row>
     <row r="5">
@@ -26659,28 +26659,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.43988231617522</v>
+        <v>72.16857794449743</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.06475752126774</v>
+        <v>98.74423219657692</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.04173504908603</v>
+        <v>89.32022126416047</v>
       </c>
       <c r="AD5" t="n">
-        <v>61439.88231617522</v>
+        <v>72168.57794449743</v>
       </c>
       <c r="AE5" t="n">
-        <v>84064.75752126773</v>
+        <v>98744.23219657692</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.005323894314014e-06</v>
+        <v>1.442594761432779e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.428385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>76041.73504908603</v>
+        <v>89320.22126416047</v>
       </c>
     </row>
   </sheetData>
@@ -26956,28 +26956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.7118158845449</v>
+        <v>138.2344305420917</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.322011338201</v>
+        <v>189.1384463402731</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.2119807824651</v>
+        <v>171.0873384790874</v>
       </c>
       <c r="AD2" t="n">
-        <v>115711.8158845449</v>
+        <v>138234.4305420917</v>
       </c>
       <c r="AE2" t="n">
-        <v>158322.011338201</v>
+        <v>189138.4463402731</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.634370349173398e-06</v>
+        <v>9.181540903899769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.533528645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>143211.9807824651</v>
+        <v>171087.3384790874</v>
       </c>
     </row>
     <row r="3">
@@ -27062,28 +27062,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.88515199815711</v>
+        <v>100.3224258011323</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.5659010142382</v>
+        <v>137.2655688941126</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.39540098764779</v>
+        <v>124.1651356523313</v>
       </c>
       <c r="AD3" t="n">
-        <v>77885.15199815712</v>
+        <v>100322.4258011323</v>
       </c>
       <c r="AE3" t="n">
-        <v>106565.9010142382</v>
+        <v>137265.5688941127</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.973152673157853e-06</v>
+        <v>1.183391517331346e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.742513020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>96395.40098764779</v>
+        <v>124165.1356523313</v>
       </c>
     </row>
     <row r="4">
@@ -27168,28 +27168,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.25386627987295</v>
+        <v>82.60051446321796</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.49268334280775</v>
+        <v>113.0176679660414</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.18811847643477</v>
+        <v>102.2314203566847</v>
       </c>
       <c r="AD4" t="n">
-        <v>71253.86627987295</v>
+        <v>82600.51446321796</v>
       </c>
       <c r="AE4" t="n">
-        <v>97492.68334280775</v>
+        <v>113017.6679660414</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.435814914847484e-06</v>
+        <v>1.275053425567078e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.5439453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>88188.11847643477</v>
+        <v>102231.4203566847</v>
       </c>
     </row>
     <row r="5">
@@ -27274,28 +27274,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.35246154477669</v>
+        <v>78.5285175275295</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.15460926642227</v>
+        <v>107.446182114809</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.35950269786382</v>
+        <v>97.19166929546272</v>
       </c>
       <c r="AD5" t="n">
-        <v>67352.46154477668</v>
+        <v>78528.5175275295</v>
       </c>
       <c r="AE5" t="n">
-        <v>92154.60926642227</v>
+        <v>107446.1821148091</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.688578627575702e-06</v>
+        <v>1.325130570736317e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.447916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>83359.50269786382</v>
+        <v>97191.66929546272</v>
       </c>
     </row>
     <row r="6">
@@ -27380,28 +27380,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.80961773709429</v>
+        <v>76.98567371984713</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.04362230328731</v>
+        <v>105.3351951516741</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.44998536770098</v>
+        <v>95.28215196529987</v>
       </c>
       <c r="AD6" t="n">
-        <v>65809.61773709429</v>
+        <v>76985.67371984712</v>
       </c>
       <c r="AE6" t="n">
-        <v>90043.62230328731</v>
+        <v>105335.1951516741</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.768674135271427e-06</v>
+        <v>1.340998965463512e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.420247395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>81449.98536770098</v>
+        <v>95282.15196529987</v>
       </c>
     </row>
   </sheetData>
